--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Plaur.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N2">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O2">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P2">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q2">
-        <v>2.819636700215111</v>
+        <v>2.176144301178667</v>
       </c>
       <c r="R2">
-        <v>25.376730301936</v>
+        <v>19.585298710608</v>
       </c>
       <c r="S2">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="T2">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P3">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q3">
         <v>1.023120625008</v>
@@ -638,10 +638,10 @@
         <v>9.208085625072</v>
       </c>
       <c r="S3">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="T3">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N4">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O4">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P4">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q4">
-        <v>6.573071125618667</v>
+        <v>10.07514138635822</v>
       </c>
       <c r="R4">
-        <v>59.157640130568</v>
+        <v>90.676272477224</v>
       </c>
       <c r="S4">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="T4">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N5">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O5">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P5">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q5">
-        <v>0.7729298573773336</v>
+        <v>1.097277876833334</v>
       </c>
       <c r="R5">
-        <v>4.637579144264001</v>
+        <v>6.583667261</v>
       </c>
       <c r="S5">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="T5">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N6">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O6">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P6">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q6">
-        <v>9.528254859857778</v>
+        <v>7.038295992328891</v>
       </c>
       <c r="R6">
-        <v>85.75429373872001</v>
+        <v>63.34466393096001</v>
       </c>
       <c r="S6">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="T6">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
     </row>
   </sheetData>
